--- a/java开发资料/erp-app测试用例.xlsx
+++ b/java开发资料/erp-app测试用例.xlsx
@@ -11,12 +11,15 @@
     <sheet name="物流" sheetId="2" r:id="rId2"/>
     <sheet name="财务" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">财务!$A$2:$H$13</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>物流</t>
   </si>
@@ -27,7 +30,7 @@
     <t>编号</t>
   </si>
   <si>
-    <t>具体模块名称</t>
+    <t>模块名称</t>
   </si>
   <si>
     <t>测试功能点</t>
@@ -42,6 +45,12 @@
     <t>实际结果</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
@@ -57,7 +66,10 @@
     <t>显示所有的数据</t>
   </si>
   <si>
-    <t>和web进行比对，显示一致</t>
+    <t>符合预期要求</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>002</t>
@@ -72,9 +84,6 @@
     <t>显示要满足检索条件</t>
   </si>
   <si>
-    <t>显示正常，和web端同条件检索时显示相同的数据</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
     <t>和web端保存一致，分类为出账时显示颜色变为红色，金额前面添加‘-’号，不包括序号和操作项</t>
   </si>
   <si>
-    <t>符合预期要求</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
   </si>
   <si>
     <t>由于web的问题，这个功能暂时无法实现</t>
+  </si>
+  <si>
+    <t>NG</t>
   </si>
   <si>
     <t>005</t>
@@ -200,19 +209,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +246,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -252,57 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -326,30 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -398,6 +400,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,108 +496,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -565,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -580,11 +582,59 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +663,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -628,56 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -691,162 +706,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1238,13 +1268,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -1252,398 +1282,502 @@
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="54" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="54" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="94.5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" ht="54" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="54" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="81" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="81" spans="1:8">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="67.5" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="54" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" ht="54" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="54" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="54" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="35" customHeight="1" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" ht="40.5" spans="1:8">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H13"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13 G14:G31 H15:H31">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/java开发资料/erp-app测试用例.xlsx
+++ b/java开发资料/erp-app测试用例.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661">
   <si>
     <t>物流模块测试用例</t>
   </si>
@@ -412,10 +412,39 @@
     <t>a.点击物流模块，选中业务统计 b.对年份和快递类型下拉框进行任意组合进行搜索</t>
   </si>
   <si>
+    <t>F:\working\java开发资料\erp-app-test\物流模块\024</t>
+  </si>
+  <si>
     <t>025</t>
   </si>
   <si>
+    <t>统计图显示</t>
+  </si>
+  <si>
+    <t>a.点击物流模块，选中业务统计 b.选中带有统计图的图标     c.长按月份统计条目，查看当月的统计图
+d.长按业务员统计的条目，查看该业务员单月的统计图</t>
+  </si>
+  <si>
+    <t>显示数据正确的前提下，要和显示数据对应上</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\物流模块\025</t>
+  </si>
+  <si>
     <t>026</t>
+  </si>
+  <si>
+    <t>统计员每月统计的详细信息</t>
+  </si>
+  <si>
+    <t>a.点击物流模块，选中业务统计 b.选中具体月份，显示业务员统计
+c.选中业务员统计的具体条目，弹出详细信息对话框</t>
+  </si>
+  <si>
+    <t>详细信息统计要与前面的月份统计和业务员统计信息要保持一致</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\物流模块\026</t>
   </si>
   <si>
     <t>027</t>
@@ -1983,10 +2012,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2156,6 +2185,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2180,6 +2215,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2187,6 +2228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,13 +2269,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,25 +2323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,43 +2365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,10 +2499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2482,16 +2511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2503,10 +2532,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2527,28 +2556,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2557,62 +2586,62 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2645,6 +2674,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3014,12 +3046,14 @@
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
@@ -3057,10 +3091,10 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
@@ -3076,7 +3110,7 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
@@ -3089,10 +3123,10 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
@@ -3978,52 +4012,98 @@
       <c r="E31" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" ht="81" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" ht="67.5" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -4040,7 +4120,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -4057,7 +4137,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -4074,7 +4154,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -4091,7 +4171,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="8"/>
@@ -4108,7 +4188,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4125,7 +4205,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4142,7 +4222,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4159,7 +4239,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -4176,7 +4256,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -4193,7 +4273,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4210,7 +4290,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4227,7 +4307,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4244,7 +4324,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4261,7 +4341,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4278,7 +4358,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4295,7 +4375,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4312,7 +4392,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4329,7 +4409,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4346,7 +4426,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4363,7 +4443,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4380,7 +4460,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4397,7 +4477,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4414,7 +4494,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -4431,7 +4511,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4448,7 +4528,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4465,7 +4545,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4482,7 +4562,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -4499,7 +4579,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -4516,7 +4596,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -4533,7 +4613,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4550,7 +4630,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4567,7 +4647,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4584,7 +4664,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4601,7 +4681,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4618,7 +4698,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4635,7 +4715,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4652,7 +4732,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4669,7 +4749,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4686,7 +4766,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4703,7 +4783,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4720,7 +4800,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4737,7 +4817,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4754,7 +4834,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4771,7 +4851,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4788,7 +4868,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4805,7 +4885,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4822,7 +4902,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4839,7 +4919,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4856,7 +4936,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4873,7 +4953,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4890,7 +4970,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4907,7 +4987,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4924,7 +5004,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4941,7 +5021,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4958,7 +5038,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4975,7 +5055,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4992,7 +5072,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5009,7 +5089,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5026,7 +5106,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5043,7 +5123,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5060,7 +5140,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -5077,7 +5157,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -5094,7 +5174,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -5111,7 +5191,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -5128,7 +5208,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -5145,7 +5225,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -5162,7 +5242,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -5179,7 +5259,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -5196,7 +5276,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -5213,7 +5293,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -5230,7 +5310,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -5247,7 +5327,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -5264,7 +5344,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -5281,7 +5361,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -5298,7 +5378,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5315,7 +5395,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -5332,7 +5412,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -5349,7 +5429,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="5" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -5366,7 +5446,7 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -5383,7 +5463,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -5400,7 +5480,7 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5417,7 +5497,7 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5434,7 +5514,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5451,7 +5531,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5468,7 +5548,7 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5485,7 +5565,7 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="5" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -5502,7 +5582,7 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="5" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -5519,7 +5599,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -5536,7 +5616,7 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -5553,7 +5633,7 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -5570,7 +5650,7 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -5587,7 +5667,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5604,7 +5684,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -5621,7 +5701,7 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -5638,7 +5718,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -5655,7 +5735,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -5672,7 +5752,7 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -5689,7 +5769,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -5706,7 +5786,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -5723,7 +5803,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -5740,7 +5820,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -5757,7 +5837,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -5774,7 +5854,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -5791,7 +5871,7 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -5808,7 +5888,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -5825,7 +5905,7 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -5842,7 +5922,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -5859,7 +5939,7 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -5876,7 +5956,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -5893,7 +5973,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -5910,7 +5990,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -5927,7 +6007,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5944,7 +6024,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5961,7 +6041,7 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -5978,7 +6058,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5995,7 +6075,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -6012,7 +6092,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -6029,7 +6109,7 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -6046,7 +6126,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -6063,7 +6143,7 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="5" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -6080,7 +6160,7 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -6097,7 +6177,7 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -6114,7 +6194,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -6131,7 +6211,7 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -6148,7 +6228,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -6165,7 +6245,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -6182,7 +6262,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -6199,7 +6279,7 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -6216,7 +6296,7 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -6233,7 +6313,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -6250,7 +6330,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -6267,7 +6347,7 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -6284,7 +6364,7 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -6301,7 +6381,7 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -6318,7 +6398,7 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -6335,7 +6415,7 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -6352,7 +6432,7 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -6369,7 +6449,7 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -6386,7 +6466,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -6403,7 +6483,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="5" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -6420,7 +6500,7 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -6437,7 +6517,7 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -6454,7 +6534,7 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -6471,7 +6551,7 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -6488,7 +6568,7 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -6505,7 +6585,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -6522,7 +6602,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="5" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -6539,7 +6619,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="5" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6556,7 +6636,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -6573,7 +6653,7 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="5" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -6590,7 +6670,7 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -6607,7 +6687,7 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="5" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6624,7 +6704,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -6641,7 +6721,7 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -6658,7 +6738,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -6675,7 +6755,7 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6692,7 +6772,7 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="5" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6709,7 +6789,7 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="5" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -6726,7 +6806,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -6743,7 +6823,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="5" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -6760,7 +6840,7 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -6777,7 +6857,7 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -6794,7 +6874,7 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -6811,7 +6891,7 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="5" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -6828,7 +6908,7 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -6845,7 +6925,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="5" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -6862,7 +6942,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -6879,7 +6959,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -6896,7 +6976,7 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -6913,7 +6993,7 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -6930,7 +7010,7 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -6947,7 +7027,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -6964,7 +7044,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="5" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -6981,7 +7061,7 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -6998,7 +7078,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -7015,7 +7095,7 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -7032,7 +7112,7 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="5" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -7049,7 +7129,7 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="5" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -7066,7 +7146,7 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -7083,7 +7163,7 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -7100,7 +7180,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="5" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -7117,7 +7197,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="5" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -7134,7 +7214,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -7151,7 +7231,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="5" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -7168,7 +7248,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="5" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -7185,7 +7265,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -7202,7 +7282,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="5" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -7219,7 +7299,7 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="5" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -7236,7 +7316,7 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -7253,7 +7333,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="5" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -7270,7 +7350,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -7287,7 +7367,7 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -7304,7 +7384,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -7321,7 +7401,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="5" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -7338,7 +7418,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -7355,7 +7435,7 @@
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -7372,7 +7452,7 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="5" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -7389,7 +7469,7 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -7406,7 +7486,7 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -7423,7 +7503,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="5" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -7440,7 +7520,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="5" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -7457,7 +7537,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="5" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -7474,7 +7554,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="5" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -7491,7 +7571,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -7508,7 +7588,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="5" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -7525,7 +7605,7 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -7542,7 +7622,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -7559,7 +7639,7 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="5" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -7576,7 +7656,7 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="5" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -7593,7 +7673,7 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="5" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -7610,7 +7690,7 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -7627,7 +7707,7 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="5" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -7644,7 +7724,7 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="5" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -7661,7 +7741,7 @@
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="5" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -7678,7 +7758,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -7695,7 +7775,7 @@
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="5" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -7712,7 +7792,7 @@
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -7729,7 +7809,7 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -7746,7 +7826,7 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="5" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -7763,7 +7843,7 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="5" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -7780,7 +7860,7 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="5" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -7797,7 +7877,7 @@
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="5" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -7814,7 +7894,7 @@
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="5" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -7831,7 +7911,7 @@
     </row>
     <row r="258" spans="1:13">
       <c r="A258" s="5" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -7848,7 +7928,7 @@
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="5" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -7865,7 +7945,7 @@
     </row>
     <row r="260" spans="1:13">
       <c r="A260" s="5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -7882,7 +7962,7 @@
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -7899,7 +7979,7 @@
     </row>
     <row r="262" spans="1:13">
       <c r="A262" s="5" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -7916,7 +7996,7 @@
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -7933,7 +8013,7 @@
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="5" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -7950,7 +8030,7 @@
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -7967,7 +8047,7 @@
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -7984,7 +8064,7 @@
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="5" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -8001,7 +8081,7 @@
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="5" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -8018,7 +8098,7 @@
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -8035,7 +8115,7 @@
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -8052,7 +8132,7 @@
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -8069,7 +8149,7 @@
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -8086,7 +8166,7 @@
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="5" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -8103,7 +8183,7 @@
     </row>
     <row r="274" spans="1:13">
       <c r="A274" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -8120,7 +8200,7 @@
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="5" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -8137,7 +8217,7 @@
     </row>
     <row r="276" spans="1:13">
       <c r="A276" s="5" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -8154,7 +8234,7 @@
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -8171,7 +8251,7 @@
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="5" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -8188,7 +8268,7 @@
     </row>
     <row r="279" spans="1:13">
       <c r="A279" s="5" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -8205,7 +8285,7 @@
     </row>
     <row r="280" spans="1:13">
       <c r="A280" s="5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -8222,7 +8302,7 @@
     </row>
     <row r="281" spans="1:13">
       <c r="A281" s="5" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -8239,7 +8319,7 @@
     </row>
     <row r="282" spans="1:13">
       <c r="A282" s="5" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -8256,7 +8336,7 @@
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -8273,7 +8353,7 @@
     </row>
     <row r="284" spans="1:13">
       <c r="A284" s="5" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -8290,7 +8370,7 @@
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="5" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -8307,7 +8387,7 @@
     </row>
     <row r="286" spans="1:13">
       <c r="A286" s="5" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -8324,7 +8404,7 @@
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -8341,7 +8421,7 @@
     </row>
     <row r="288" spans="1:13">
       <c r="A288" s="5" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -8358,7 +8438,7 @@
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="5" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -8375,7 +8455,7 @@
     </row>
     <row r="290" spans="1:13">
       <c r="A290" s="5" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -8392,7 +8472,7 @@
     </row>
     <row r="291" spans="1:13">
       <c r="A291" s="5" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -8409,7 +8489,7 @@
     </row>
     <row r="292" spans="1:13">
       <c r="A292" s="5" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -8426,7 +8506,7 @@
     </row>
     <row r="293" spans="1:13">
       <c r="A293" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -8443,7 +8523,7 @@
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="5" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -8460,7 +8540,7 @@
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="5" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -8477,7 +8557,7 @@
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="5" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -8494,7 +8574,7 @@
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="5" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -8511,7 +8591,7 @@
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="5" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -8528,7 +8608,7 @@
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -8545,7 +8625,7 @@
     </row>
     <row r="300" spans="1:13">
       <c r="A300" s="5" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -8562,7 +8642,7 @@
     </row>
     <row r="301" spans="1:13">
       <c r="A301" s="5" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -8579,7 +8659,7 @@
     </row>
     <row r="302" spans="1:13">
       <c r="A302" s="5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -8596,7 +8676,7 @@
     </row>
     <row r="303" spans="1:13">
       <c r="A303" s="5" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -8613,7 +8693,7 @@
     </row>
     <row r="304" spans="1:13">
       <c r="A304" s="5" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -8630,7 +8710,7 @@
     </row>
     <row r="305" spans="1:13">
       <c r="A305" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -8647,7 +8727,7 @@
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -8664,7 +8744,7 @@
     </row>
     <row r="307" spans="1:13">
       <c r="A307" s="5" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -8681,7 +8761,7 @@
     </row>
     <row r="308" spans="1:13">
       <c r="A308" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -8698,7 +8778,7 @@
     </row>
     <row r="309" spans="1:13">
       <c r="A309" s="5" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -8715,7 +8795,7 @@
     </row>
     <row r="310" spans="1:13">
       <c r="A310" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -8732,7 +8812,7 @@
     </row>
     <row r="311" spans="1:13">
       <c r="A311" s="5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -8749,7 +8829,7 @@
     </row>
     <row r="312" spans="1:13">
       <c r="A312" s="5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -8766,7 +8846,7 @@
     </row>
     <row r="313" spans="1:13">
       <c r="A313" s="5" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -8783,7 +8863,7 @@
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -8800,7 +8880,7 @@
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -8817,7 +8897,7 @@
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="5" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -8834,7 +8914,7 @@
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -8851,7 +8931,7 @@
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="5" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -8868,7 +8948,7 @@
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="5" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -8885,7 +8965,7 @@
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="5" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -8902,7 +8982,7 @@
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="5" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -8919,7 +8999,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="5" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -8936,7 +9016,7 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -8953,7 +9033,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -8970,7 +9050,7 @@
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="5" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -8987,7 +9067,7 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -9004,7 +9084,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="5" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -9021,7 +9101,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="5" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -9038,7 +9118,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="5" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -9055,7 +9135,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="5" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -9072,7 +9152,7 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="5" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -9089,7 +9169,7 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="5" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -9106,7 +9186,7 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="5" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -9123,7 +9203,7 @@
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="5" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -9140,7 +9220,7 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="5" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -9157,7 +9237,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="5" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -9174,7 +9254,7 @@
     </row>
     <row r="337" spans="1:13">
       <c r="A337" s="5" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -9191,7 +9271,7 @@
     </row>
     <row r="338" spans="1:13">
       <c r="A338" s="5" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -9208,7 +9288,7 @@
     </row>
     <row r="339" spans="1:13">
       <c r="A339" s="5" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -9225,7 +9305,7 @@
     </row>
     <row r="340" spans="1:13">
       <c r="A340" s="5" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -9242,7 +9322,7 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -9259,7 +9339,7 @@
     </row>
     <row r="342" spans="1:13">
       <c r="A342" s="5" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -9276,7 +9356,7 @@
     </row>
     <row r="343" spans="1:13">
       <c r="A343" s="5" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -9293,7 +9373,7 @@
     </row>
     <row r="344" spans="1:13">
       <c r="A344" s="5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -9310,7 +9390,7 @@
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="5" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -9327,7 +9407,7 @@
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="5" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -9344,7 +9424,7 @@
     </row>
     <row r="347" spans="1:13">
       <c r="A347" s="5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -9361,7 +9441,7 @@
     </row>
     <row r="348" spans="1:13">
       <c r="A348" s="5" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -9378,7 +9458,7 @@
     </row>
     <row r="349" spans="1:13">
       <c r="A349" s="5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -9395,7 +9475,7 @@
     </row>
     <row r="350" spans="1:13">
       <c r="A350" s="5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -9412,7 +9492,7 @@
     </row>
     <row r="351" spans="1:13">
       <c r="A351" s="5" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -9429,7 +9509,7 @@
     </row>
     <row r="352" spans="1:13">
       <c r="A352" s="5" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -9446,7 +9526,7 @@
     </row>
     <row r="353" spans="1:13">
       <c r="A353" s="5" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -9463,7 +9543,7 @@
     </row>
     <row r="354" spans="1:13">
       <c r="A354" s="5" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -9480,7 +9560,7 @@
     </row>
     <row r="355" spans="1:13">
       <c r="A355" s="5" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -9497,7 +9577,7 @@
     </row>
     <row r="356" spans="1:13">
       <c r="A356" s="5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -9514,7 +9594,7 @@
     </row>
     <row r="357" spans="1:13">
       <c r="A357" s="5" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -9531,7 +9611,7 @@
     </row>
     <row r="358" spans="1:13">
       <c r="A358" s="5" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -9548,7 +9628,7 @@
     </row>
     <row r="359" spans="1:13">
       <c r="A359" s="5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -9565,7 +9645,7 @@
     </row>
     <row r="360" spans="1:13">
       <c r="A360" s="5" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -9582,7 +9662,7 @@
     </row>
     <row r="361" spans="1:13">
       <c r="A361" s="5" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -9599,7 +9679,7 @@
     </row>
     <row r="362" spans="1:13">
       <c r="A362" s="5" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -9616,7 +9696,7 @@
     </row>
     <row r="363" spans="1:13">
       <c r="A363" s="5" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -9633,7 +9713,7 @@
     </row>
     <row r="364" spans="1:13">
       <c r="A364" s="5" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -9650,7 +9730,7 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -9667,7 +9747,7 @@
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="5" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -9684,7 +9764,7 @@
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="5" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -9701,7 +9781,7 @@
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="5" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -9718,7 +9798,7 @@
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="5" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -9735,7 +9815,7 @@
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="5" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -9752,7 +9832,7 @@
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="5" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -9769,7 +9849,7 @@
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="5" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -9786,7 +9866,7 @@
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="5" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -9803,7 +9883,7 @@
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="5" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -9820,7 +9900,7 @@
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="5" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -9837,7 +9917,7 @@
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="5" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -9854,7 +9934,7 @@
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -9871,7 +9951,7 @@
     </row>
     <row r="378" spans="1:13">
       <c r="A378" s="5" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -9888,7 +9968,7 @@
     </row>
     <row r="379" spans="1:13">
       <c r="A379" s="5" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -9905,7 +9985,7 @@
     </row>
     <row r="380" spans="1:13">
       <c r="A380" s="5" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -9922,7 +10002,7 @@
     </row>
     <row r="381" spans="1:13">
       <c r="A381" s="5" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -9939,7 +10019,7 @@
     </row>
     <row r="382" spans="1:13">
       <c r="A382" s="5" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -9956,7 +10036,7 @@
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -9973,7 +10053,7 @@
     </row>
     <row r="384" spans="1:13">
       <c r="A384" s="5" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -9990,7 +10070,7 @@
     </row>
     <row r="385" spans="1:13">
       <c r="A385" s="5" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -10007,7 +10087,7 @@
     </row>
     <row r="386" spans="1:13">
       <c r="A386" s="5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -10024,7 +10104,7 @@
     </row>
     <row r="387" spans="1:13">
       <c r="A387" s="5" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -10041,7 +10121,7 @@
     </row>
     <row r="388" spans="1:13">
       <c r="A388" s="5" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -10058,7 +10138,7 @@
     </row>
     <row r="389" spans="1:13">
       <c r="A389" s="5" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -10075,7 +10155,7 @@
     </row>
     <row r="390" spans="1:13">
       <c r="A390" s="5" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -10092,7 +10172,7 @@
     </row>
     <row r="391" spans="1:13">
       <c r="A391" s="5" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -10109,7 +10189,7 @@
     </row>
     <row r="392" spans="1:13">
       <c r="A392" s="5" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -10126,7 +10206,7 @@
     </row>
     <row r="393" spans="1:13">
       <c r="A393" s="5" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -10143,7 +10223,7 @@
     </row>
     <row r="394" spans="1:13">
       <c r="A394" s="5" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -10160,7 +10240,7 @@
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="5" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -10177,7 +10257,7 @@
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="5" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -10194,7 +10274,7 @@
     </row>
     <row r="397" spans="1:13">
       <c r="A397" s="5" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -10211,7 +10291,7 @@
     </row>
     <row r="398" spans="1:13">
       <c r="A398" s="5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -10228,7 +10308,7 @@
     </row>
     <row r="399" spans="1:13">
       <c r="A399" s="5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -10245,7 +10325,7 @@
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="5" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -10262,7 +10342,7 @@
     </row>
     <row r="401" spans="1:13">
       <c r="A401" s="5" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -10279,7 +10359,7 @@
     </row>
     <row r="402" spans="1:13">
       <c r="A402" s="5" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -10296,7 +10376,7 @@
     </row>
     <row r="403" spans="1:13">
       <c r="A403" s="5" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -10313,7 +10393,7 @@
     </row>
     <row r="404" spans="1:13">
       <c r="A404" s="5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -10330,7 +10410,7 @@
     </row>
     <row r="405" spans="1:13">
       <c r="A405" s="5" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -10347,7 +10427,7 @@
     </row>
     <row r="406" spans="1:13">
       <c r="A406" s="5" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -10364,7 +10444,7 @@
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="5" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -10381,7 +10461,7 @@
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="5" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -10398,7 +10478,7 @@
     </row>
     <row r="409" spans="1:13">
       <c r="A409" s="5" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -10415,7 +10495,7 @@
     </row>
     <row r="410" spans="1:13">
       <c r="A410" s="5" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -10432,7 +10512,7 @@
     </row>
     <row r="411" spans="1:13">
       <c r="A411" s="5" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -10449,7 +10529,7 @@
     </row>
     <row r="412" spans="1:13">
       <c r="A412" s="5" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -10466,7 +10546,7 @@
     </row>
     <row r="413" spans="1:13">
       <c r="A413" s="5" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -10483,7 +10563,7 @@
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="5" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -10500,7 +10580,7 @@
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="5" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -10517,7 +10597,7 @@
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="5" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -10534,7 +10614,7 @@
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="5" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -10551,7 +10631,7 @@
     </row>
     <row r="418" spans="1:13">
       <c r="A418" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -10568,7 +10648,7 @@
     </row>
     <row r="419" spans="1:13">
       <c r="A419" s="5" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -10585,7 +10665,7 @@
     </row>
     <row r="420" spans="1:13">
       <c r="A420" s="5" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -10602,7 +10682,7 @@
     </row>
     <row r="421" spans="1:13">
       <c r="A421" s="5" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -10619,7 +10699,7 @@
     </row>
     <row r="422" spans="1:13">
       <c r="A422" s="5" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -10636,7 +10716,7 @@
     </row>
     <row r="423" spans="1:13">
       <c r="A423" s="5" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -10653,7 +10733,7 @@
     </row>
     <row r="424" spans="1:13">
       <c r="A424" s="5" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -10670,7 +10750,7 @@
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="5" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -10687,7 +10767,7 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="5" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -10704,7 +10784,7 @@
     </row>
     <row r="427" spans="1:13">
       <c r="A427" s="5" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -10721,7 +10801,7 @@
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="5" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -10738,7 +10818,7 @@
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="5" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -10755,7 +10835,7 @@
     </row>
     <row r="430" spans="1:13">
       <c r="A430" s="5" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -10772,7 +10852,7 @@
     </row>
     <row r="431" spans="1:13">
       <c r="A431" s="5" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -10789,7 +10869,7 @@
     </row>
     <row r="432" spans="1:13">
       <c r="A432" s="5" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -10806,7 +10886,7 @@
     </row>
     <row r="433" spans="1:13">
       <c r="A433" s="5" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -10823,7 +10903,7 @@
     </row>
     <row r="434" spans="1:13">
       <c r="A434" s="5" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -10840,7 +10920,7 @@
     </row>
     <row r="435" spans="1:13">
       <c r="A435" s="5" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -10857,7 +10937,7 @@
     </row>
     <row r="436" spans="1:13">
       <c r="A436" s="5" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -10874,7 +10954,7 @@
     </row>
     <row r="437" spans="1:13">
       <c r="A437" s="5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -10891,7 +10971,7 @@
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="5" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -10908,7 +10988,7 @@
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="5" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -10925,7 +11005,7 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="5" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -10942,7 +11022,7 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="5" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -10959,7 +11039,7 @@
     </row>
     <row r="442" spans="1:13">
       <c r="A442" s="5" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -10976,7 +11056,7 @@
     </row>
     <row r="443" spans="1:13">
       <c r="A443" s="5" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -10993,7 +11073,7 @@
     </row>
     <row r="444" spans="1:13">
       <c r="A444" s="5" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -11010,7 +11090,7 @@
     </row>
     <row r="445" spans="1:13">
       <c r="A445" s="5" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -11027,7 +11107,7 @@
     </row>
     <row r="446" spans="1:13">
       <c r="A446" s="5" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -11044,7 +11124,7 @@
     </row>
     <row r="447" spans="1:13">
       <c r="A447" s="5" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -11061,7 +11141,7 @@
     </row>
     <row r="448" spans="1:13">
       <c r="A448" s="5" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -11078,7 +11158,7 @@
     </row>
     <row r="449" spans="1:13">
       <c r="A449" s="5" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -11095,7 +11175,7 @@
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="5" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -11112,7 +11192,7 @@
     </row>
     <row r="451" spans="1:13">
       <c r="A451" s="5" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -11129,7 +11209,7 @@
     </row>
     <row r="452" spans="1:13">
       <c r="A452" s="5" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -11146,7 +11226,7 @@
     </row>
     <row r="453" spans="1:13">
       <c r="A453" s="5" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -11163,7 +11243,7 @@
     </row>
     <row r="454" spans="1:13">
       <c r="A454" s="5" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -11180,7 +11260,7 @@
     </row>
     <row r="455" spans="1:13">
       <c r="A455" s="5" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -11197,7 +11277,7 @@
     </row>
     <row r="456" spans="1:13">
       <c r="A456" s="5" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -11214,7 +11294,7 @@
     </row>
     <row r="457" spans="1:13">
       <c r="A457" s="5" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -11231,7 +11311,7 @@
     </row>
     <row r="458" spans="1:13">
       <c r="A458" s="5" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -11248,7 +11328,7 @@
     </row>
     <row r="459" spans="1:13">
       <c r="A459" s="5" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -11265,7 +11345,7 @@
     </row>
     <row r="460" spans="1:13">
       <c r="A460" s="5" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -11282,7 +11362,7 @@
     </row>
     <row r="461" spans="1:13">
       <c r="A461" s="5" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -11299,7 +11379,7 @@
     </row>
     <row r="462" spans="1:13">
       <c r="A462" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -11316,7 +11396,7 @@
     </row>
     <row r="463" spans="1:13">
       <c r="A463" s="5" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -11333,7 +11413,7 @@
     </row>
     <row r="464" spans="1:13">
       <c r="A464" s="5" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -11350,7 +11430,7 @@
     </row>
     <row r="465" spans="1:13">
       <c r="A465" s="5" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -11367,7 +11447,7 @@
     </row>
     <row r="466" spans="1:13">
       <c r="A466" s="5" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -11384,7 +11464,7 @@
     </row>
     <row r="467" spans="1:13">
       <c r="A467" s="5" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -11401,7 +11481,7 @@
     </row>
     <row r="468" spans="1:13">
       <c r="A468" s="5" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -11418,7 +11498,7 @@
     </row>
     <row r="469" spans="1:13">
       <c r="A469" s="5" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -11435,7 +11515,7 @@
     </row>
     <row r="470" spans="1:13">
       <c r="A470" s="5" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -11452,7 +11532,7 @@
     </row>
     <row r="471" spans="1:13">
       <c r="A471" s="5" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -11469,7 +11549,7 @@
     </row>
     <row r="472" spans="1:13">
       <c r="A472" s="5" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -11486,7 +11566,7 @@
     </row>
     <row r="473" spans="1:13">
       <c r="A473" s="5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -11503,7 +11583,7 @@
     </row>
     <row r="474" spans="1:13">
       <c r="A474" s="5" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -11520,7 +11600,7 @@
     </row>
     <row r="475" spans="1:13">
       <c r="A475" s="5" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -11537,7 +11617,7 @@
     </row>
     <row r="476" spans="1:13">
       <c r="A476" s="5" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -11554,7 +11634,7 @@
     </row>
     <row r="477" spans="1:13">
       <c r="A477" s="5" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -11571,7 +11651,7 @@
     </row>
     <row r="478" spans="1:13">
       <c r="A478" s="5" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -11588,7 +11668,7 @@
     </row>
     <row r="479" spans="1:13">
       <c r="A479" s="5" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -11605,7 +11685,7 @@
     </row>
     <row r="480" spans="1:13">
       <c r="A480" s="5" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -11622,7 +11702,7 @@
     </row>
     <row r="481" spans="1:13">
       <c r="A481" s="5" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -11639,7 +11719,7 @@
     </row>
     <row r="482" spans="1:13">
       <c r="A482" s="5" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -11656,7 +11736,7 @@
     </row>
     <row r="483" spans="1:13">
       <c r="A483" s="5" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -11673,7 +11753,7 @@
     </row>
     <row r="484" spans="1:13">
       <c r="A484" s="5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -11690,7 +11770,7 @@
     </row>
     <row r="485" spans="1:13">
       <c r="A485" s="5" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -11707,7 +11787,7 @@
     </row>
     <row r="486" spans="1:13">
       <c r="A486" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -11724,7 +11804,7 @@
     </row>
     <row r="487" spans="1:13">
       <c r="A487" s="5" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -11741,7 +11821,7 @@
     </row>
     <row r="488" spans="1:13">
       <c r="A488" s="5" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -11758,7 +11838,7 @@
     </row>
     <row r="489" spans="1:13">
       <c r="A489" s="5" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -11775,7 +11855,7 @@
     </row>
     <row r="490" spans="1:13">
       <c r="A490" s="5" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -11792,7 +11872,7 @@
     </row>
     <row r="491" spans="1:13">
       <c r="A491" s="5" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -11809,7 +11889,7 @@
     </row>
     <row r="492" spans="1:13">
       <c r="A492" s="5" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -11826,7 +11906,7 @@
     </row>
     <row r="493" spans="1:13">
       <c r="A493" s="5" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -11843,7 +11923,7 @@
     </row>
     <row r="494" spans="1:13">
       <c r="A494" s="5" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -11860,7 +11940,7 @@
     </row>
     <row r="495" spans="1:13">
       <c r="A495" s="5" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -11877,7 +11957,7 @@
     </row>
     <row r="496" spans="1:13">
       <c r="A496" s="5" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -11894,7 +11974,7 @@
     </row>
     <row r="497" spans="1:13">
       <c r="A497" s="5" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -11911,7 +11991,7 @@
     </row>
     <row r="498" spans="1:13">
       <c r="A498" s="5" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -11928,7 +12008,7 @@
     </row>
     <row r="499" spans="1:13">
       <c r="A499" s="5" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -11945,7 +12025,7 @@
     </row>
     <row r="500" spans="1:13">
       <c r="A500" s="5" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -11962,7 +12042,7 @@
     </row>
     <row r="501" spans="1:13">
       <c r="A501" s="5" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -11983,14 +12063,14 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K21:L21 K26:L26 K27 L27 K28 L28 K36 L36 K24:K25 K29:K30 K37:K38 K100:K501 L24:L25 L29:L30 L37:L38 L100:L501 K8:L10 K12:L20 K39:L99 K22:L23 K31:L35">
-      <formula1>"李延,马继开,张言虎"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B21 B36 B8:B10 B12:B20 B22:B23 B24:B25 B26:B35 B37:B38 B39:B99 B100:B501">
       <formula1>"正常系,异常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H12 H13 H14 H15 H16 H17 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H36 I36 H37 H38 H8:H10 H18:H19 H31:H35 H39:H99 H100:H501 I22:I23 I31:I35 J31:J35 M8:M21 M22:M501">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H12 H13 H14 H15 H16 H17 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H36 I36 H37 H38 H8:H10 H18:H19 H31:H35 H39:H99 H100:H501 I22:I23 I31:I35 J34:J35 M8:M21 M22:M501">
       <formula1>"OK,NG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K21:L21 K26:L26 K27 L27 K28 L28 K36 L36 K24:K25 K29:K30 K37:K38 K100:K501 L24:L25 L29:L30 L37:L38 L100:L501 K8:L10 K12:L20 K39:L99 K22:L23 K31:L35">
+      <formula1>"李延,马继开,张言虎"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12004,7 +12084,7 @@
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -12025,7 +12105,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12158,16 +12238,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
@@ -12177,7 +12257,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>29</v>
@@ -12193,16 +12273,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>26</v>
@@ -12212,7 +12292,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>29</v>
@@ -12228,16 +12308,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -12247,7 +12327,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
@@ -12263,28 +12343,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>29</v>
@@ -12300,28 +12380,28 @@
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>29</v>
@@ -12337,13 +12417,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>57</v>
@@ -12356,7 +12436,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -12372,13 +12452,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>62</v>
@@ -12391,7 +12471,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -12407,13 +12487,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>67</v>
@@ -12426,7 +12506,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>29</v>
@@ -12442,16 +12522,16 @@
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>26</v>
@@ -12461,7 +12541,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
@@ -12477,16 +12557,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
@@ -12496,7 +12576,7 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>29</v>
@@ -12512,13 +12592,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>92</v>
@@ -12531,7 +12611,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>29</v>
@@ -12547,13 +12627,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>88</v>
@@ -12566,7 +12646,7 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>29</v>
@@ -12579,19 +12659,19 @@
         <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>26</v>
@@ -12601,7 +12681,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>29</v>
@@ -12614,19 +12694,19 @@
         <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -12636,7 +12716,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>29</v>
@@ -12649,19 +12729,19 @@
         <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -12671,7 +12751,7 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -12834,7 +12914,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -12851,7 +12931,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -12868,7 +12948,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -12885,7 +12965,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -12902,7 +12982,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -12919,7 +12999,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -12936,7 +13016,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -12953,7 +13033,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -12970,7 +13050,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -12987,7 +13067,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -13004,7 +13084,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -13021,7 +13101,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13038,7 +13118,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -13055,7 +13135,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -13072,7 +13152,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -13089,7 +13169,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -13106,7 +13186,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -13123,7 +13203,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -13140,7 +13220,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -13157,7 +13237,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -13174,7 +13254,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -13191,7 +13271,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -13208,7 +13288,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -13225,7 +13305,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -13242,7 +13322,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -13259,7 +13339,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -13276,7 +13356,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -13293,7 +13373,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -13310,7 +13390,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -13327,7 +13407,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -13344,7 +13424,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -13361,7 +13441,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -13378,7 +13458,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -13395,7 +13475,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -13412,7 +13492,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -13429,7 +13509,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -13446,7 +13526,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -13463,7 +13543,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -13480,7 +13560,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -13497,7 +13577,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -13514,7 +13594,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -13531,7 +13611,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -13548,7 +13628,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -13565,7 +13645,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -13582,7 +13662,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -13599,7 +13679,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -13616,7 +13696,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -13633,7 +13713,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -13650,7 +13730,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -13667,7 +13747,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -13684,7 +13764,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -13701,7 +13781,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -13718,7 +13798,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -13735,7 +13815,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -13752,7 +13832,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -13769,7 +13849,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -13786,7 +13866,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="5" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -13803,7 +13883,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -13820,7 +13900,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -13837,7 +13917,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -13854,7 +13934,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -13871,7 +13951,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -13888,7 +13968,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -13905,7 +13985,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -13922,7 +14002,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -13939,7 +14019,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -13956,7 +14036,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -13973,7 +14053,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -13990,7 +14070,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -14007,7 +14087,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -14024,7 +14104,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -14041,7 +14121,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -14058,7 +14138,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -14075,7 +14155,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -14092,7 +14172,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -14109,7 +14189,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -14126,7 +14206,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -14143,7 +14223,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -14160,7 +14240,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -14177,7 +14257,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -14194,7 +14274,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="5" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -14211,7 +14291,7 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -14228,7 +14308,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -14245,7 +14325,7 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="5" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -14262,7 +14342,7 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -14279,7 +14359,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -14296,7 +14376,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -14313,7 +14393,7 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -14330,7 +14410,7 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="5" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -14347,7 +14427,7 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="5" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -14364,7 +14444,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -14381,7 +14461,7 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="5" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -14398,7 +14478,7 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -14415,7 +14495,7 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="5" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -14432,7 +14512,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -14449,7 +14529,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -14466,7 +14546,7 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -14483,7 +14563,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="5" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -14500,7 +14580,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -14517,7 +14597,7 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -14534,7 +14614,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -14551,7 +14631,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="5" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -14568,7 +14648,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -14585,7 +14665,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -14602,7 +14682,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -14619,7 +14699,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -14636,7 +14716,7 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -14653,7 +14733,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -14670,7 +14750,7 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="5" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -14687,7 +14767,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -14704,7 +14784,7 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -14721,7 +14801,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="5" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -14738,7 +14818,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -14755,7 +14835,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -14772,7 +14852,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -14789,7 +14869,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -14806,7 +14886,7 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -14823,7 +14903,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -14840,7 +14920,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -14857,7 +14937,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -14874,7 +14954,7 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="5" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -14891,7 +14971,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -14908,7 +14988,7 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="5" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -14925,7 +15005,7 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="5" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -14942,7 +15022,7 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="5" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -14959,7 +15039,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -14976,7 +15056,7 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -14993,7 +15073,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -15010,7 +15090,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -15027,7 +15107,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -15044,7 +15124,7 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -15061,7 +15141,7 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -15078,7 +15158,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -15095,7 +15175,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -15112,7 +15192,7 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -15129,7 +15209,7 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -15146,7 +15226,7 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -15163,7 +15243,7 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -15180,7 +15260,7 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -15197,7 +15277,7 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -15214,7 +15294,7 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -15231,7 +15311,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -15248,7 +15328,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="5" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -15265,7 +15345,7 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -15282,7 +15362,7 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -15299,7 +15379,7 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="5" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -15316,7 +15396,7 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -15333,7 +15413,7 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="5" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -15350,7 +15430,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -15367,7 +15447,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="5" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -15384,7 +15464,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="5" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -15401,7 +15481,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="5" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -15418,7 +15498,7 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="5" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -15435,7 +15515,7 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -15452,7 +15532,7 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="5" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -15469,7 +15549,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -15486,7 +15566,7 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -15503,7 +15583,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -15520,7 +15600,7 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -15537,7 +15617,7 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="5" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -15554,7 +15634,7 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="5" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -15571,7 +15651,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -15588,7 +15668,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="5" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -15605,7 +15685,7 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -15622,7 +15702,7 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -15639,7 +15719,7 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -15656,7 +15736,7 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="5" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -15673,7 +15753,7 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -15690,7 +15770,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="5" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -15707,7 +15787,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -15724,7 +15804,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -15741,7 +15821,7 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -15758,7 +15838,7 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -15775,7 +15855,7 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -15792,7 +15872,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -15809,7 +15889,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="5" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -15826,7 +15906,7 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -15843,7 +15923,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -15860,7 +15940,7 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -15877,7 +15957,7 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="5" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -15894,7 +15974,7 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="5" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -15911,7 +15991,7 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="5" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -15928,7 +16008,7 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -15945,7 +16025,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="5" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -15962,7 +16042,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="5" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -15979,7 +16059,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -15996,7 +16076,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="5" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -16013,7 +16093,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="5" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -16030,7 +16110,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -16047,7 +16127,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="5" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -16064,7 +16144,7 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="5" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -16081,7 +16161,7 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -16098,7 +16178,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="5" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -16115,7 +16195,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -16132,7 +16212,7 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -16149,7 +16229,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -16166,7 +16246,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="5" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -16183,7 +16263,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -16200,7 +16280,7 @@
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -16217,7 +16297,7 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="5" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -16234,7 +16314,7 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -16251,7 +16331,7 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -16268,7 +16348,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="5" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -16285,7 +16365,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="5" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -16302,7 +16382,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="5" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -16319,7 +16399,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="5" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -16336,7 +16416,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -16353,7 +16433,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="5" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -16370,7 +16450,7 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -16387,7 +16467,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -16404,7 +16484,7 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="5" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -16421,7 +16501,7 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="5" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -16438,7 +16518,7 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="5" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -16455,7 +16535,7 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="5" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -16472,7 +16552,7 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="5" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -16489,7 +16569,7 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="5" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -16506,7 +16586,7 @@
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="5" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -16523,7 +16603,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -16540,7 +16620,7 @@
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="5" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -16557,7 +16637,7 @@
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -16574,7 +16654,7 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -16591,7 +16671,7 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="5" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -16608,7 +16688,7 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="5" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -16625,7 +16705,7 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="5" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -16642,7 +16722,7 @@
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="5" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -16659,7 +16739,7 @@
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="5" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -16676,7 +16756,7 @@
     </row>
     <row r="258" spans="1:13">
       <c r="A258" s="5" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -16693,7 +16773,7 @@
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="5" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -16710,7 +16790,7 @@
     </row>
     <row r="260" spans="1:13">
       <c r="A260" s="5" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -16727,7 +16807,7 @@
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="5" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -16744,7 +16824,7 @@
     </row>
     <row r="262" spans="1:13">
       <c r="A262" s="5" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -16761,7 +16841,7 @@
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -16778,7 +16858,7 @@
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="5" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -16795,7 +16875,7 @@
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -16812,7 +16892,7 @@
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="5" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -16829,7 +16909,7 @@
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="5" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -16846,7 +16926,7 @@
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="5" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -16863,7 +16943,7 @@
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="5" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -16880,7 +16960,7 @@
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -16897,7 +16977,7 @@
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -16914,7 +16994,7 @@
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -16931,7 +17011,7 @@
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="5" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -16948,7 +17028,7 @@
     </row>
     <row r="274" spans="1:13">
       <c r="A274" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -16965,7 +17045,7 @@
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="5" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -16982,7 +17062,7 @@
     </row>
     <row r="276" spans="1:13">
       <c r="A276" s="5" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -16999,7 +17079,7 @@
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -17016,7 +17096,7 @@
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="5" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -17033,7 +17113,7 @@
     </row>
     <row r="279" spans="1:13">
       <c r="A279" s="5" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -17050,7 +17130,7 @@
     </row>
     <row r="280" spans="1:13">
       <c r="A280" s="5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -17067,7 +17147,7 @@
     </row>
     <row r="281" spans="1:13">
       <c r="A281" s="5" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -17084,7 +17164,7 @@
     </row>
     <row r="282" spans="1:13">
       <c r="A282" s="5" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -17101,7 +17181,7 @@
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -17118,7 +17198,7 @@
     </row>
     <row r="284" spans="1:13">
       <c r="A284" s="5" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -17135,7 +17215,7 @@
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="5" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -17152,7 +17232,7 @@
     </row>
     <row r="286" spans="1:13">
       <c r="A286" s="5" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -17169,7 +17249,7 @@
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -17186,7 +17266,7 @@
     </row>
     <row r="288" spans="1:13">
       <c r="A288" s="5" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -17203,7 +17283,7 @@
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="5" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -17220,7 +17300,7 @@
     </row>
     <row r="290" spans="1:13">
       <c r="A290" s="5" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -17237,7 +17317,7 @@
     </row>
     <row r="291" spans="1:13">
       <c r="A291" s="5" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -17254,7 +17334,7 @@
     </row>
     <row r="292" spans="1:13">
       <c r="A292" s="5" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -17271,7 +17351,7 @@
     </row>
     <row r="293" spans="1:13">
       <c r="A293" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -17288,7 +17368,7 @@
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="5" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -17305,7 +17385,7 @@
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="5" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -17322,7 +17402,7 @@
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="5" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -17339,7 +17419,7 @@
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="5" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -17356,7 +17436,7 @@
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="5" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -17373,7 +17453,7 @@
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="5" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -17390,7 +17470,7 @@
     </row>
     <row r="300" spans="1:13">
       <c r="A300" s="5" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -17407,7 +17487,7 @@
     </row>
     <row r="301" spans="1:13">
       <c r="A301" s="5" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -17424,7 +17504,7 @@
     </row>
     <row r="302" spans="1:13">
       <c r="A302" s="5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -17441,7 +17521,7 @@
     </row>
     <row r="303" spans="1:13">
       <c r="A303" s="5" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -17458,7 +17538,7 @@
     </row>
     <row r="304" spans="1:13">
       <c r="A304" s="5" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -17475,7 +17555,7 @@
     </row>
     <row r="305" spans="1:13">
       <c r="A305" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -17492,7 +17572,7 @@
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -17509,7 +17589,7 @@
     </row>
     <row r="307" spans="1:13">
       <c r="A307" s="5" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -17526,7 +17606,7 @@
     </row>
     <row r="308" spans="1:13">
       <c r="A308" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -17543,7 +17623,7 @@
     </row>
     <row r="309" spans="1:13">
       <c r="A309" s="5" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -17560,7 +17640,7 @@
     </row>
     <row r="310" spans="1:13">
       <c r="A310" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -17577,7 +17657,7 @@
     </row>
     <row r="311" spans="1:13">
       <c r="A311" s="5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -17594,7 +17674,7 @@
     </row>
     <row r="312" spans="1:13">
       <c r="A312" s="5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -17611,7 +17691,7 @@
     </row>
     <row r="313" spans="1:13">
       <c r="A313" s="5" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -17628,7 +17708,7 @@
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -17645,7 +17725,7 @@
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -17662,7 +17742,7 @@
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="5" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -17679,7 +17759,7 @@
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -17696,7 +17776,7 @@
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="5" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -17713,7 +17793,7 @@
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="5" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -17730,7 +17810,7 @@
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="5" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -17747,7 +17827,7 @@
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="5" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -17764,7 +17844,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="5" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -17781,7 +17861,7 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -17798,7 +17878,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -17815,7 +17895,7 @@
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="5" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -17832,7 +17912,7 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -17849,7 +17929,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="5" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -17866,7 +17946,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="5" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -17883,7 +17963,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="5" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -17900,7 +17980,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="5" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -17917,7 +17997,7 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="5" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -17934,7 +18014,7 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="5" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -17951,7 +18031,7 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="5" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -17968,7 +18048,7 @@
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="5" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -17985,7 +18065,7 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="5" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -18002,7 +18082,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="5" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -18019,7 +18099,7 @@
     </row>
     <row r="337" spans="1:13">
       <c r="A337" s="5" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -18036,7 +18116,7 @@
     </row>
     <row r="338" spans="1:13">
       <c r="A338" s="5" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -18053,7 +18133,7 @@
     </row>
     <row r="339" spans="1:13">
       <c r="A339" s="5" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -18070,7 +18150,7 @@
     </row>
     <row r="340" spans="1:13">
       <c r="A340" s="5" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -18087,7 +18167,7 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -18104,7 +18184,7 @@
     </row>
     <row r="342" spans="1:13">
       <c r="A342" s="5" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -18121,7 +18201,7 @@
     </row>
     <row r="343" spans="1:13">
       <c r="A343" s="5" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -18138,7 +18218,7 @@
     </row>
     <row r="344" spans="1:13">
       <c r="A344" s="5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -18155,7 +18235,7 @@
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="5" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -18172,7 +18252,7 @@
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="5" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -18189,7 +18269,7 @@
     </row>
     <row r="347" spans="1:13">
       <c r="A347" s="5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -18206,7 +18286,7 @@
     </row>
     <row r="348" spans="1:13">
       <c r="A348" s="5" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -18223,7 +18303,7 @@
     </row>
     <row r="349" spans="1:13">
       <c r="A349" s="5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -18240,7 +18320,7 @@
     </row>
     <row r="350" spans="1:13">
       <c r="A350" s="5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -18257,7 +18337,7 @@
     </row>
     <row r="351" spans="1:13">
       <c r="A351" s="5" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -18274,7 +18354,7 @@
     </row>
     <row r="352" spans="1:13">
       <c r="A352" s="5" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -18291,7 +18371,7 @@
     </row>
     <row r="353" spans="1:13">
       <c r="A353" s="5" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -18308,7 +18388,7 @@
     </row>
     <row r="354" spans="1:13">
       <c r="A354" s="5" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -18325,7 +18405,7 @@
     </row>
     <row r="355" spans="1:13">
       <c r="A355" s="5" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -18342,7 +18422,7 @@
     </row>
     <row r="356" spans="1:13">
       <c r="A356" s="5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -18359,7 +18439,7 @@
     </row>
     <row r="357" spans="1:13">
       <c r="A357" s="5" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -18376,7 +18456,7 @@
     </row>
     <row r="358" spans="1:13">
       <c r="A358" s="5" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -18393,7 +18473,7 @@
     </row>
     <row r="359" spans="1:13">
       <c r="A359" s="5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -18410,7 +18490,7 @@
     </row>
     <row r="360" spans="1:13">
       <c r="A360" s="5" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -18427,7 +18507,7 @@
     </row>
     <row r="361" spans="1:13">
       <c r="A361" s="5" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -18444,7 +18524,7 @@
     </row>
     <row r="362" spans="1:13">
       <c r="A362" s="5" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -18461,7 +18541,7 @@
     </row>
     <row r="363" spans="1:13">
       <c r="A363" s="5" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -18478,7 +18558,7 @@
     </row>
     <row r="364" spans="1:13">
       <c r="A364" s="5" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -18495,7 +18575,7 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -18512,7 +18592,7 @@
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="5" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -18529,7 +18609,7 @@
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="5" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -18546,7 +18626,7 @@
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="5" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -18563,7 +18643,7 @@
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="5" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -18580,7 +18660,7 @@
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="5" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -18597,7 +18677,7 @@
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="5" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -18614,7 +18694,7 @@
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="5" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -18631,7 +18711,7 @@
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="5" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -18648,7 +18728,7 @@
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="5" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -18665,7 +18745,7 @@
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="5" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -18682,7 +18762,7 @@
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="5" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -18699,7 +18779,7 @@
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -18716,7 +18796,7 @@
     </row>
     <row r="378" spans="1:13">
       <c r="A378" s="5" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -18733,7 +18813,7 @@
     </row>
     <row r="379" spans="1:13">
       <c r="A379" s="5" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -18750,7 +18830,7 @@
     </row>
     <row r="380" spans="1:13">
       <c r="A380" s="5" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -18767,7 +18847,7 @@
     </row>
     <row r="381" spans="1:13">
       <c r="A381" s="5" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -18784,7 +18864,7 @@
     </row>
     <row r="382" spans="1:13">
       <c r="A382" s="5" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -18801,7 +18881,7 @@
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -18818,7 +18898,7 @@
     </row>
     <row r="384" spans="1:13">
       <c r="A384" s="5" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -18835,7 +18915,7 @@
     </row>
     <row r="385" spans="1:13">
       <c r="A385" s="5" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -18852,7 +18932,7 @@
     </row>
     <row r="386" spans="1:13">
       <c r="A386" s="5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -18869,7 +18949,7 @@
     </row>
     <row r="387" spans="1:13">
       <c r="A387" s="5" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -18886,7 +18966,7 @@
     </row>
     <row r="388" spans="1:13">
       <c r="A388" s="5" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -18903,7 +18983,7 @@
     </row>
     <row r="389" spans="1:13">
       <c r="A389" s="5" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -18920,7 +19000,7 @@
     </row>
     <row r="390" spans="1:13">
       <c r="A390" s="5" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -18937,7 +19017,7 @@
     </row>
     <row r="391" spans="1:13">
       <c r="A391" s="5" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -18954,7 +19034,7 @@
     </row>
     <row r="392" spans="1:13">
       <c r="A392" s="5" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -18971,7 +19051,7 @@
     </row>
     <row r="393" spans="1:13">
       <c r="A393" s="5" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -18988,7 +19068,7 @@
     </row>
     <row r="394" spans="1:13">
       <c r="A394" s="5" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -19005,7 +19085,7 @@
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="5" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -19022,7 +19102,7 @@
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="5" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -19039,7 +19119,7 @@
     </row>
     <row r="397" spans="1:13">
       <c r="A397" s="5" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -19056,7 +19136,7 @@
     </row>
     <row r="398" spans="1:13">
       <c r="A398" s="5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -19073,7 +19153,7 @@
     </row>
     <row r="399" spans="1:13">
       <c r="A399" s="5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -19090,7 +19170,7 @@
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="5" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -19107,7 +19187,7 @@
     </row>
     <row r="401" spans="1:13">
       <c r="A401" s="5" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -19124,7 +19204,7 @@
     </row>
     <row r="402" spans="1:13">
       <c r="A402" s="5" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -19141,7 +19221,7 @@
     </row>
     <row r="403" spans="1:13">
       <c r="A403" s="5" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -19158,7 +19238,7 @@
     </row>
     <row r="404" spans="1:13">
       <c r="A404" s="5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -19175,7 +19255,7 @@
     </row>
     <row r="405" spans="1:13">
       <c r="A405" s="5" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -19192,7 +19272,7 @@
     </row>
     <row r="406" spans="1:13">
       <c r="A406" s="5" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -19209,7 +19289,7 @@
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="5" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -19226,7 +19306,7 @@
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="5" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -19243,7 +19323,7 @@
     </row>
     <row r="409" spans="1:13">
       <c r="A409" s="5" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -19260,7 +19340,7 @@
     </row>
     <row r="410" spans="1:13">
       <c r="A410" s="5" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -19277,7 +19357,7 @@
     </row>
     <row r="411" spans="1:13">
       <c r="A411" s="5" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -19294,7 +19374,7 @@
     </row>
     <row r="412" spans="1:13">
       <c r="A412" s="5" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -19311,7 +19391,7 @@
     </row>
     <row r="413" spans="1:13">
       <c r="A413" s="5" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -19328,7 +19408,7 @@
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="5" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -19345,7 +19425,7 @@
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="5" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -19362,7 +19442,7 @@
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="5" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -19379,7 +19459,7 @@
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="5" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -19396,7 +19476,7 @@
     </row>
     <row r="418" spans="1:13">
       <c r="A418" s="5" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -19413,7 +19493,7 @@
     </row>
     <row r="419" spans="1:13">
       <c r="A419" s="5" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -19430,7 +19510,7 @@
     </row>
     <row r="420" spans="1:13">
       <c r="A420" s="5" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -19447,7 +19527,7 @@
     </row>
     <row r="421" spans="1:13">
       <c r="A421" s="5" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -19464,7 +19544,7 @@
     </row>
     <row r="422" spans="1:13">
       <c r="A422" s="5" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -19481,7 +19561,7 @@
     </row>
     <row r="423" spans="1:13">
       <c r="A423" s="5" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -19498,7 +19578,7 @@
     </row>
     <row r="424" spans="1:13">
       <c r="A424" s="5" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -19515,7 +19595,7 @@
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="5" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -19532,7 +19612,7 @@
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="5" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -19549,7 +19629,7 @@
     </row>
     <row r="427" spans="1:13">
       <c r="A427" s="5" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -19566,7 +19646,7 @@
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="5" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -19583,7 +19663,7 @@
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="5" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -19600,7 +19680,7 @@
     </row>
     <row r="430" spans="1:13">
       <c r="A430" s="5" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -19617,7 +19697,7 @@
     </row>
     <row r="431" spans="1:13">
       <c r="A431" s="5" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -19634,7 +19714,7 @@
     </row>
     <row r="432" spans="1:13">
       <c r="A432" s="5" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -19651,7 +19731,7 @@
     </row>
     <row r="433" spans="1:13">
       <c r="A433" s="5" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -19668,7 +19748,7 @@
     </row>
     <row r="434" spans="1:13">
       <c r="A434" s="5" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -19685,7 +19765,7 @@
     </row>
     <row r="435" spans="1:13">
       <c r="A435" s="5" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -19702,7 +19782,7 @@
     </row>
     <row r="436" spans="1:13">
       <c r="A436" s="5" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -19719,7 +19799,7 @@
     </row>
     <row r="437" spans="1:13">
       <c r="A437" s="5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -19736,7 +19816,7 @@
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="5" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -19753,7 +19833,7 @@
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="5" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -19770,7 +19850,7 @@
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="5" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -19787,7 +19867,7 @@
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="5" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -19804,7 +19884,7 @@
     </row>
     <row r="442" spans="1:13">
       <c r="A442" s="5" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -19821,7 +19901,7 @@
     </row>
     <row r="443" spans="1:13">
       <c r="A443" s="5" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -19838,7 +19918,7 @@
     </row>
     <row r="444" spans="1:13">
       <c r="A444" s="5" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -19855,7 +19935,7 @@
     </row>
     <row r="445" spans="1:13">
       <c r="A445" s="5" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -19872,7 +19952,7 @@
     </row>
     <row r="446" spans="1:13">
       <c r="A446" s="5" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -19889,7 +19969,7 @@
     </row>
     <row r="447" spans="1:13">
       <c r="A447" s="5" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -19906,7 +19986,7 @@
     </row>
     <row r="448" spans="1:13">
       <c r="A448" s="5" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -19923,7 +20003,7 @@
     </row>
     <row r="449" spans="1:13">
       <c r="A449" s="5" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -19940,7 +20020,7 @@
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="5" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -19957,7 +20037,7 @@
     </row>
     <row r="451" spans="1:13">
       <c r="A451" s="5" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -19974,7 +20054,7 @@
     </row>
     <row r="452" spans="1:13">
       <c r="A452" s="5" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -19991,7 +20071,7 @@
     </row>
     <row r="453" spans="1:13">
       <c r="A453" s="5" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -20008,7 +20088,7 @@
     </row>
     <row r="454" spans="1:13">
       <c r="A454" s="5" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -20025,7 +20105,7 @@
     </row>
     <row r="455" spans="1:13">
       <c r="A455" s="5" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -20042,7 +20122,7 @@
     </row>
     <row r="456" spans="1:13">
       <c r="A456" s="5" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -20059,7 +20139,7 @@
     </row>
     <row r="457" spans="1:13">
       <c r="A457" s="5" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -20076,7 +20156,7 @@
     </row>
     <row r="458" spans="1:13">
       <c r="A458" s="5" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -20093,7 +20173,7 @@
     </row>
     <row r="459" spans="1:13">
       <c r="A459" s="5" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -20110,7 +20190,7 @@
     </row>
     <row r="460" spans="1:13">
       <c r="A460" s="5" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -20127,7 +20207,7 @@
     </row>
     <row r="461" spans="1:13">
       <c r="A461" s="5" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -20144,7 +20224,7 @@
     </row>
     <row r="462" spans="1:13">
       <c r="A462" s="5" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -20161,7 +20241,7 @@
     </row>
     <row r="463" spans="1:13">
       <c r="A463" s="5" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -20178,7 +20258,7 @@
     </row>
     <row r="464" spans="1:13">
       <c r="A464" s="5" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -20195,7 +20275,7 @@
     </row>
     <row r="465" spans="1:13">
       <c r="A465" s="5" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -20212,7 +20292,7 @@
     </row>
     <row r="466" spans="1:13">
       <c r="A466" s="5" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -20229,7 +20309,7 @@
     </row>
     <row r="467" spans="1:13">
       <c r="A467" s="5" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -20246,7 +20326,7 @@
     </row>
     <row r="468" spans="1:13">
       <c r="A468" s="5" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -20263,7 +20343,7 @@
     </row>
     <row r="469" spans="1:13">
       <c r="A469" s="5" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -20280,7 +20360,7 @@
     </row>
     <row r="470" spans="1:13">
       <c r="A470" s="5" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -20297,7 +20377,7 @@
     </row>
     <row r="471" spans="1:13">
       <c r="A471" s="5" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -20314,7 +20394,7 @@
     </row>
     <row r="472" spans="1:13">
       <c r="A472" s="5" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -20331,7 +20411,7 @@
     </row>
     <row r="473" spans="1:13">
       <c r="A473" s="5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -20348,7 +20428,7 @@
     </row>
     <row r="474" spans="1:13">
       <c r="A474" s="5" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -20365,7 +20445,7 @@
     </row>
     <row r="475" spans="1:13">
       <c r="A475" s="5" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -20382,7 +20462,7 @@
     </row>
     <row r="476" spans="1:13">
       <c r="A476" s="5" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -20399,7 +20479,7 @@
     </row>
     <row r="477" spans="1:13">
       <c r="A477" s="5" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -20416,7 +20496,7 @@
     </row>
     <row r="478" spans="1:13">
       <c r="A478" s="5" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -20433,7 +20513,7 @@
     </row>
     <row r="479" spans="1:13">
       <c r="A479" s="5" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -20450,7 +20530,7 @@
     </row>
     <row r="480" spans="1:13">
       <c r="A480" s="5" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -20467,7 +20547,7 @@
     </row>
     <row r="481" spans="1:13">
       <c r="A481" s="5" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -20484,7 +20564,7 @@
     </row>
     <row r="482" spans="1:13">
       <c r="A482" s="5" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -20501,7 +20581,7 @@
     </row>
     <row r="483" spans="1:13">
       <c r="A483" s="5" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -20518,7 +20598,7 @@
     </row>
     <row r="484" spans="1:13">
       <c r="A484" s="5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -20535,7 +20615,7 @@
     </row>
     <row r="485" spans="1:13">
       <c r="A485" s="5" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -20552,7 +20632,7 @@
     </row>
     <row r="486" spans="1:13">
       <c r="A486" s="5" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -20569,7 +20649,7 @@
     </row>
     <row r="487" spans="1:13">
       <c r="A487" s="5" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -20586,7 +20666,7 @@
     </row>
     <row r="488" spans="1:13">
       <c r="A488" s="5" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -20603,7 +20683,7 @@
     </row>
     <row r="489" spans="1:13">
       <c r="A489" s="5" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -20620,7 +20700,7 @@
     </row>
     <row r="490" spans="1:13">
       <c r="A490" s="5" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -20637,7 +20717,7 @@
     </row>
     <row r="491" spans="1:13">
       <c r="A491" s="5" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -20654,7 +20734,7 @@
     </row>
     <row r="492" spans="1:13">
       <c r="A492" s="5" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -20671,7 +20751,7 @@
     </row>
     <row r="493" spans="1:13">
       <c r="A493" s="5" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -20688,7 +20768,7 @@
     </row>
     <row r="494" spans="1:13">
       <c r="A494" s="5" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -20705,7 +20785,7 @@
     </row>
     <row r="495" spans="1:13">
       <c r="A495" s="5" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -20722,7 +20802,7 @@
     </row>
     <row r="496" spans="1:13">
       <c r="A496" s="5" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -20739,7 +20819,7 @@
     </row>
     <row r="497" spans="1:13">
       <c r="A497" s="5" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -20756,7 +20836,7 @@
     </row>
     <row r="498" spans="1:13">
       <c r="A498" s="5" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -20773,7 +20853,7 @@
     </row>
     <row r="499" spans="1:13">
       <c r="A499" s="5" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -20790,7 +20870,7 @@
     </row>
     <row r="500" spans="1:13">
       <c r="A500" s="5" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -20807,7 +20887,7 @@
     </row>
     <row r="501" spans="1:13">
       <c r="A501" s="5" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -20828,14 +20908,14 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K21:L21 K100:K501 L100:L501 K8:L10 K12:L20 K22:L99">
-      <formula1>"李延,马继开,张言虎"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B21 B8:B10 B12:B20 B22:B99 B100:B501">
       <formula1>"正常系,异常系"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H21 H22 H8:H10 H12:H20 H23:H99 H100:H501 I22:I37 J23:J37 M8:M21 M22:M501">
       <formula1>"OK,NG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K21:L21 K100:K501 L100:L501 K8:L10 K12:L20 K22:L99">
+      <formula1>"李延,马继开,张言虎"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/java开发资料/erp-app测试用例.xlsx
+++ b/java开发资料/erp-app测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录主菜单" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711">
   <si>
     <t>登录和主菜单模块测试用例</t>
   </si>
@@ -1710,7 +1710,7 @@
     <t>F:\working\java开发资料\erp-app-test\考勤模块\004</t>
   </si>
   <si>
-    <t>考勤明细</t>
+    <t>人员所在项目组</t>
   </si>
   <si>
     <t>a.点击考勤模块，选中考勤管理
@@ -1721,6 +1721,19 @@
   </si>
   <si>
     <t>F:\working\java开发资料\erp-app-test\考勤模块\005</t>
+  </si>
+  <si>
+    <t>考勤明细</t>
+  </si>
+  <si>
+    <t>a.点击考勤模块，选中考勤管理
+b.选中下面显示考勤的数据，显示考勤人员所在项目组，选中项目组</t>
+  </si>
+  <si>
+    <t>弹出详细信息对话框，显示该员工的详细信息。周末的数据显示为红色,并查看信息是否正确</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\考勤模块\006</t>
   </si>
   <si>
     <t>物流模块测试用例</t>
@@ -2171,10 +2184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2186,53 +2199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2254,14 +2221,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2269,24 +2244,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2306,11 +2266,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2324,6 +2330,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2350,7 +2363,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,13 +2441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,121 +2465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2524,7 +2489,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2568,30 +2581,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2610,8 +2599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2633,11 +2622,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2650,6 +2637,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2658,10 +2671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2670,133 +2683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3187,8 +3200,8 @@
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11832,8 +11845,8 @@
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12153,20 +12166,38 @@
       <c r="L12" s="10"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" customFormat="1" spans="1:13">
+    <row r="13" customFormat="1" ht="67.5" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
@@ -20471,13 +20502,13 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B21 B8:B10 B12:B20 B22:B99 B100:B501">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B13 B21 B8:B10 B14:B20 B22:B99 B100:B501">
       <formula1>"正常系,异常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H21 H22 H8:H10 H12:H20 H23:H99 H100:H501 I22:I37 J23:J37 M8:M21 M22:M501">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H12 H13 H21 H22 H8:H10 H14:H20 H23:H99 H100:H501 I22:I37 J23:J37 M8:M21 M22:M501">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K21:L21 K100:K501 L100:L501 K8:L10 K12:L20 K22:L99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K12:L12 K13 L13 K21:L21 K100:K501 L100:L501 K8:L10 K22:L99 K14:L20">
       <formula1>"李延,马继开,张言虎"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20513,7 +20544,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20646,16 +20677,16 @@
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
@@ -20665,7 +20696,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>29</v>
@@ -20681,13 +20712,13 @@
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>550</v>
@@ -20700,7 +20731,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>29</v>
@@ -20716,16 +20747,16 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -20735,7 +20766,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
@@ -20751,13 +20782,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>550</v>
@@ -20770,7 +20801,7 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>29</v>
@@ -20786,16 +20817,16 @@
         <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>26</v>
@@ -20805,7 +20836,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>29</v>
@@ -20821,16 +20852,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -20840,7 +20871,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -20856,16 +20887,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -20875,7 +20906,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -20891,16 +20922,16 @@
         <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>26</v>
@@ -20910,7 +20941,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>29</v>
@@ -20926,16 +20957,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>26</v>
@@ -20945,7 +20976,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
@@ -20961,16 +20992,16 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
@@ -20980,7 +21011,7 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>29</v>
@@ -20996,16 +21027,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>26</v>
@@ -21015,7 +21046,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>29</v>
@@ -21031,16 +21062,16 @@
         <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>26</v>
@@ -21050,7 +21081,7 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>29</v>
@@ -21066,16 +21097,16 @@
         <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>552</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>26</v>
@@ -21085,7 +21116,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>29</v>
@@ -21101,16 +21132,16 @@
         <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -21120,7 +21151,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>29</v>
@@ -21136,16 +21167,16 @@
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -21155,7 +21186,7 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -21171,13 +21202,13 @@
         <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>550</v>
@@ -21190,7 +21221,7 @@
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>29</v>
@@ -21206,16 +21237,16 @@
         <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>26</v>
@@ -21225,7 +21256,7 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>29</v>
@@ -21241,16 +21272,16 @@
         <v>36</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>26</v>
@@ -21260,7 +21291,7 @@
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>29</v>
@@ -21276,16 +21307,16 @@
         <v>36</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>26</v>
@@ -21295,7 +21326,7 @@
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>29</v>
@@ -21311,16 +21342,16 @@
         <v>36</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>26</v>
@@ -21330,7 +21361,7 @@
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>29</v>
@@ -21346,16 +21377,16 @@
         <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>26</v>
@@ -21365,7 +21396,7 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>29</v>
@@ -21396,16 +21427,16 @@
         <v>36</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>26</v>
@@ -21415,7 +21446,7 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>29</v>
@@ -21431,16 +21462,16 @@
         <v>36</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>26</v>
@@ -21450,7 +21481,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>29</v>
@@ -21466,16 +21497,16 @@
         <v>36</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>26</v>
@@ -21485,7 +21516,7 @@
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>29</v>
@@ -21501,16 +21532,16 @@
         <v>36</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>26</v>
@@ -21520,7 +21551,7 @@
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>29</v>
@@ -21536,16 +21567,16 @@
         <v>21</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>26</v>
@@ -21555,7 +21586,7 @@
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>29</v>
@@ -21571,16 +21602,16 @@
         <v>21</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>26</v>
@@ -21590,7 +21621,7 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>29</v>
@@ -21606,16 +21637,16 @@
         <v>21</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>26</v>
@@ -21625,7 +21656,7 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="6" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>29</v>
@@ -21641,16 +21672,16 @@
         <v>21</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>26</v>
@@ -21660,7 +21691,7 @@
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>29</v>
@@ -29604,7 +29635,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -29737,16 +29768,16 @@
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
@@ -29756,7 +29787,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>29</v>
@@ -29772,16 +29803,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>26</v>
@@ -29791,7 +29822,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>29</v>
@@ -29807,16 +29838,16 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -29826,7 +29857,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
@@ -29842,28 +29873,28 @@
         <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>29</v>
@@ -29879,28 +29910,28 @@
         <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>675</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>29</v>
@@ -29916,16 +29947,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>26</v>
@@ -29935,7 +29966,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -29951,16 +29982,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>26</v>
@@ -29970,7 +30001,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -29986,16 +30017,16 @@
         <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>26</v>
@@ -30005,7 +30036,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>29</v>
@@ -30021,16 +30052,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>26</v>
@@ -30040,7 +30071,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
@@ -30056,16 +30087,16 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
@@ -30075,7 +30106,7 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>29</v>
@@ -30091,16 +30122,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>26</v>
@@ -30110,7 +30141,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>29</v>
@@ -30126,16 +30157,16 @@
         <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>552</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>26</v>
@@ -30145,7 +30176,7 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>29</v>
@@ -30161,16 +30192,16 @@
         <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>26</v>
@@ -30180,7 +30211,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>29</v>
@@ -30196,16 +30227,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -30215,7 +30246,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>29</v>
@@ -30231,16 +30262,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>26</v>
@@ -30250,7 +30281,7 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
